--- a/Procesos/05001233300020150082700.xlsx
+++ b/Procesos/05001233300020150082700.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9228" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Formato" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Formato" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -254,65 +254,65 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="9" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="11" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="12" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="14" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -589,18 +589,18 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="11.4" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="0" defaultRowHeight="11.4"/>
   <cols>
-    <col width="1.375" customWidth="1" style="14" min="1" max="2"/>
-    <col width="3.125" customWidth="1" style="13" min="3" max="8"/>
-    <col width="3.625" customWidth="1" style="13" min="9" max="9"/>
-    <col width="3.125" customWidth="1" style="13" min="10" max="48"/>
-    <col width="1.375" customWidth="1" style="14" min="49" max="50"/>
-    <col hidden="1" width="11" customWidth="1" style="8" min="51" max="73"/>
-    <col hidden="1" width="11" customWidth="1" style="8" min="74" max="16384"/>
+    <col customWidth="1" max="2" min="1" style="14" width="1.375"/>
+    <col customWidth="1" max="8" min="3" style="13" width="3.125"/>
+    <col customWidth="1" max="9" min="9" style="13" width="3.625"/>
+    <col customWidth="1" max="48" min="10" style="13" width="3.125"/>
+    <col customWidth="1" max="50" min="49" style="14" width="1.375"/>
+    <col customWidth="1" hidden="1" max="73" min="51" style="8" width="11"/>
+    <col customWidth="1" hidden="1" max="16384" min="74" style="8" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" customHeight="1" s="8">
+    <row customHeight="1" ht="17.4" r="1" s="8">
       <c r="A1" s="2" t="n"/>
       <c r="C1" s="17" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
       <c r="AV1" s="19" t="n"/>
       <c r="AW1" s="2" t="n"/>
     </row>
-    <row r="2" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="2" s="8">
       <c r="A2" s="2" t="n"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
       </c>
       <c r="AW2" s="2" t="n"/>
     </row>
-    <row r="3" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="3" s="8">
       <c r="A3" s="2" t="n"/>
       <c r="C3" s="20" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
       <c r="AV3" s="19" t="n"/>
       <c r="AW3" s="2" t="n"/>
     </row>
-    <row r="4" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="4" s="8">
       <c r="A4" s="2" t="n"/>
       <c r="C4" s="21" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
       <c r="AV4" s="29" t="n"/>
       <c r="AW4" s="2" t="n"/>
     </row>
-    <row r="5" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="5" s="8">
       <c r="A5" s="2" t="n"/>
       <c r="C5" s="30" t="n"/>
       <c r="D5" s="31" t="n"/>
@@ -829,11 +829,11 @@
       <c r="AV5" s="32" t="n"/>
       <c r="AW5" s="2" t="n"/>
     </row>
-    <row r="6" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="6" s="8">
       <c r="A6" s="2" t="n"/>
       <c r="AW6" s="2" t="n"/>
     </row>
-    <row r="7" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="7" s="8">
       <c r="A7" s="2" t="n"/>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="AW7" s="2" t="n"/>
     </row>
-    <row r="8" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="8" s="8">
       <c r="A8" s="2" t="n"/>
       <c r="C8" s="20" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
       <c r="AV8" s="19" t="n"/>
       <c r="AW8" s="2" t="n"/>
     </row>
-    <row r="9" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="9" s="8">
       <c r="A9" s="2" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
       <c r="AV9" s="29" t="n"/>
       <c r="AW9" s="2" t="n"/>
     </row>
-    <row r="10" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="10" s="8">
       <c r="A10" s="2" t="n"/>
       <c r="C10" s="30" t="n"/>
       <c r="D10" s="31" t="n"/>
@@ -1024,11 +1024,11 @@
       <c r="AV10" s="32" t="n"/>
       <c r="AW10" s="2" t="n"/>
     </row>
-    <row r="11" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="11" s="8">
       <c r="A11" s="2" t="n"/>
       <c r="AW11" s="2" t="n"/>
     </row>
-    <row r="12" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="12" s="8">
       <c r="A12" s="2" t="n"/>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="AW12" s="2" t="n"/>
     </row>
-    <row r="13" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="13" s="8">
       <c r="A13" s="2" t="n"/>
       <c r="C13" s="20" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       <c r="AV13" s="19" t="n"/>
       <c r="AW13" s="2" t="n"/>
     </row>
-    <row r="14" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="14" s="8">
       <c r="A14" s="2" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       <c r="AV14" s="29" t="n"/>
       <c r="AW14" s="2" t="n"/>
     </row>
-    <row r="15" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="15" s="8">
       <c r="A15" s="2" t="n"/>
       <c r="C15" s="30" t="n"/>
       <c r="D15" s="31" t="n"/>
@@ -1203,11 +1203,11 @@
       <c r="AV15" s="32" t="n"/>
       <c r="AW15" s="2" t="n"/>
     </row>
-    <row r="16" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="16" s="8">
       <c r="A16" s="2" t="n"/>
       <c r="AW16" s="2" t="n"/>
     </row>
-    <row r="17" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="17" s="8">
       <c r="A17" s="2" t="n"/>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="AW17" s="2" t="n"/>
     </row>
-    <row r="18" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="18" s="8">
       <c r="A18" s="2" t="n"/>
       <c r="C18" s="27" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       <c r="AV18" s="29" t="n"/>
       <c r="AW18" s="2" t="n"/>
     </row>
-    <row r="19" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="19" s="8">
       <c r="A19" s="2" t="n"/>
       <c r="C19" s="21" t="inlineStr"/>
       <c r="D19" s="28" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="AV19" s="29" t="n"/>
       <c r="AW19" s="2" t="n"/>
     </row>
-    <row r="20" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="20" s="8">
       <c r="A20" s="2" t="n"/>
       <c r="C20" s="30" t="n"/>
       <c r="D20" s="31" t="n"/>
@@ -1370,7 +1370,7 @@
       <c r="AV20" s="32" t="n"/>
       <c r="AW20" s="2" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1" s="8" thickBot="1">
+    <row customHeight="1" ht="12" r="21" s="8" thickBot="1">
       <c r="B21" s="4" t="n"/>
       <c r="C21" s="3" t="n"/>
       <c r="D21" s="3" t="n"/>
@@ -1420,15 +1420,15 @@
       <c r="AV21" s="3" t="n"/>
       <c r="AW21" s="5" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1" s="8" thickTop="1"/>
-    <row r="24" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="12" r="22" s="8" thickTop="1"/>
+    <row customHeight="1" ht="11.4" r="24" s="8">
       <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Documentos Asociados</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="25" s="8">
       <c r="C25" s="20" t="inlineStr">
         <is>
           <t>Nombre del Documento</t>
@@ -1484,7 +1484,7 @@
       <c r="AU25" s="18" t="n"/>
       <c r="AV25" s="19" t="n"/>
     </row>
-    <row r="26" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="26" s="8">
       <c r="C26" s="9" t="inlineStr">
         <is>
           <t>F05001233300020150082700AUTO20160202080621.doc</t>
@@ -1652,7 +1652,7 @@
       <c r="AU28" s="18" t="n"/>
       <c r="AV28" s="19" t="n"/>
     </row>
-    <row r="29" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="29" s="8">
       <c r="C29" s="9" t="inlineStr">
         <is>
           <t>F05001233300020150082700AUTO20150903100050.doc</t>
@@ -1708,7 +1708,7 @@
       <c r="AU29" s="18" t="n"/>
       <c r="AV29" s="19" t="n"/>
     </row>
-    <row r="30" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="30" s="8">
       <c r="C30" s="9" t="inlineStr">
         <is>
           <t>F05001233300020150082700AUTO20150806093750.doc</t>
@@ -1764,7 +1764,7 @@
       <c r="AU30" s="18" t="n"/>
       <c r="AV30" s="19" t="n"/>
     </row>
-    <row r="31" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="31" s="8">
       <c r="C31" s="9" t="inlineStr">
         <is>
           <t>F05001233300020150082700AUTO20150603153225.doc</t>
@@ -1820,7 +1820,7 @@
       <c r="AU31" s="18" t="n"/>
       <c r="AV31" s="19" t="n"/>
     </row>
-    <row r="32" ht="11.4" customHeight="1" s="8">
+    <row customHeight="1" ht="11.4" r="32" s="8">
       <c r="C32" s="9" t="inlineStr">
         <is>
           <t>F05001233300020150082700AUTO20150526101806.doc</t>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="35"/>
     <row r="36"/>
-    <row r="37" ht="18" customHeight="1" s="8">
+    <row customHeight="1" ht="18" r="37" s="8">
       <c r="C37" s="16" t="inlineStr">
         <is>
           <t>Actuaciones del Proceso</t>
@@ -2042,7 +2042,7 @@
       <c r="AU37" s="18" t="n"/>
       <c r="AV37" s="19" t="n"/>
     </row>
-    <row r="38" ht="27" customHeight="1" s="8">
+    <row customHeight="1" ht="27" r="38" s="8">
       <c r="C38" s="15" t="inlineStr">
         <is>
           <t>Fecha de Actuacion</t>
@@ -2114,7 +2114,7 @@
       <c r="AU38" s="31" t="n"/>
       <c r="AV38" s="32" t="n"/>
     </row>
-    <row r="39" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="39" s="8">
       <c r="C39" s="9" t="inlineStr">
         <is>
           <t>18 Mar 2016</t>
@@ -2178,7 +2178,7 @@
       <c r="AU39" s="18" t="n"/>
       <c r="AV39" s="19" t="n"/>
     </row>
-    <row r="40" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="40" s="8">
       <c r="C40" s="9" t="inlineStr">
         <is>
           <t>01 Mar 2016</t>
@@ -2242,7 +2242,7 @@
       <c r="AU40" s="18" t="n"/>
       <c r="AV40" s="19" t="n"/>
     </row>
-    <row r="41" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="41" s="8">
       <c r="C41" s="9" t="inlineStr">
         <is>
           <t>29 Feb 2016</t>
@@ -2306,7 +2306,7 @@
       <c r="AU41" s="18" t="n"/>
       <c r="AV41" s="19" t="n"/>
     </row>
-    <row r="42" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="42" s="8">
       <c r="C42" s="9" t="inlineStr">
         <is>
           <t>02 Feb 2016</t>
@@ -2378,7 +2378,7 @@
       <c r="AU42" s="18" t="n"/>
       <c r="AV42" s="19" t="n"/>
     </row>
-    <row r="43" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="43" s="8">
       <c r="C43" s="9" t="inlineStr">
         <is>
           <t>02 Feb 2016</t>
@@ -2442,7 +2442,7 @@
       <c r="AU43" s="18" t="n"/>
       <c r="AV43" s="19" t="n"/>
     </row>
-    <row r="44" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="44" s="8">
       <c r="C44" s="9" t="inlineStr">
         <is>
           <t>19 Jan 2016</t>
@@ -2506,7 +2506,7 @@
       <c r="AU44" s="18" t="n"/>
       <c r="AV44" s="19" t="n"/>
     </row>
-    <row r="45" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="45" s="8">
       <c r="C45" s="9" t="inlineStr">
         <is>
           <t>07 Dec 2015</t>
@@ -2578,7 +2578,7 @@
       <c r="AU45" s="18" t="n"/>
       <c r="AV45" s="19" t="n"/>
     </row>
-    <row r="46" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="46" s="8">
       <c r="C46" s="9" t="inlineStr">
         <is>
           <t>07 Dec 2015</t>
@@ -2642,7 +2642,7 @@
       <c r="AU46" s="18" t="n"/>
       <c r="AV46" s="19" t="n"/>
     </row>
-    <row r="47" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="47" s="8">
       <c r="C47" s="9" t="inlineStr">
         <is>
           <t>23 Nov 2015</t>
@@ -2706,7 +2706,7 @@
       <c r="AU47" s="18" t="n"/>
       <c r="AV47" s="19" t="n"/>
     </row>
-    <row r="48" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="48" s="8">
       <c r="C48" s="9" t="inlineStr">
         <is>
           <t>19 Nov 2015</t>
@@ -2770,7 +2770,7 @@
       <c r="AU48" s="18" t="n"/>
       <c r="AV48" s="19" t="n"/>
     </row>
-    <row r="49" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="49" s="8">
       <c r="C49" s="9" t="inlineStr">
         <is>
           <t>17 Nov 2015</t>
@@ -2834,7 +2834,7 @@
       <c r="AU49" s="18" t="n"/>
       <c r="AV49" s="19" t="n"/>
     </row>
-    <row r="50" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="50" s="8">
       <c r="C50" s="9" t="inlineStr">
         <is>
           <t>12 Nov 2015</t>
@@ -2906,7 +2906,7 @@
       <c r="AU50" s="18" t="n"/>
       <c r="AV50" s="19" t="n"/>
     </row>
-    <row r="51" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="51" s="8">
       <c r="C51" s="9" t="inlineStr">
         <is>
           <t>12 Nov 2015</t>
@@ -2970,7 +2970,7 @@
       <c r="AU51" s="18" t="n"/>
       <c r="AV51" s="19" t="n"/>
     </row>
-    <row r="52" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="52" s="8">
       <c r="C52" s="9" t="inlineStr">
         <is>
           <t>27 Oct 2015</t>
@@ -3034,7 +3034,7 @@
       <c r="AU52" s="18" t="n"/>
       <c r="AV52" s="19" t="n"/>
     </row>
-    <row r="53" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="53" s="8">
       <c r="C53" s="9" t="inlineStr">
         <is>
           <t>22 Oct 2015</t>
@@ -3098,7 +3098,7 @@
       <c r="AU53" s="18" t="n"/>
       <c r="AV53" s="19" t="n"/>
     </row>
-    <row r="54" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="54" s="8">
       <c r="C54" s="9" t="inlineStr">
         <is>
           <t>07 Sep 2015</t>
@@ -3162,7 +3162,7 @@
       <c r="AU54" s="18" t="n"/>
       <c r="AV54" s="19" t="n"/>
     </row>
-    <row r="55" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="55" s="8">
       <c r="C55" s="9" t="inlineStr">
         <is>
           <t>03 Sep 2015</t>
@@ -3234,7 +3234,7 @@
       <c r="AU55" s="18" t="n"/>
       <c r="AV55" s="19" t="n"/>
     </row>
-    <row r="56" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="56" s="8">
       <c r="C56" s="9" t="inlineStr">
         <is>
           <t>03 Sep 2015</t>
@@ -3298,7 +3298,7 @@
       <c r="AU56" s="18" t="n"/>
       <c r="AV56" s="19" t="n"/>
     </row>
-    <row r="57" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="57" s="8">
       <c r="C57" s="9" t="inlineStr">
         <is>
           <t>31 Aug 2015</t>
@@ -3362,7 +3362,7 @@
       <c r="AU57" s="18" t="n"/>
       <c r="AV57" s="19" t="n"/>
     </row>
-    <row r="58" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="58" s="8">
       <c r="C58" s="9" t="inlineStr">
         <is>
           <t>06 Aug 2015</t>
@@ -3434,7 +3434,7 @@
       <c r="AU58" s="18" t="n"/>
       <c r="AV58" s="19" t="n"/>
     </row>
-    <row r="59" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="59" s="8">
       <c r="C59" s="9" t="inlineStr">
         <is>
           <t>06 Aug 2015</t>
@@ -3498,7 +3498,7 @@
       <c r="AU59" s="18" t="n"/>
       <c r="AV59" s="19" t="n"/>
     </row>
-    <row r="60" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="60" s="8">
       <c r="C60" s="9" t="inlineStr">
         <is>
           <t>06 Jul 2015</t>
@@ -3562,7 +3562,7 @@
       <c r="AU60" s="18" t="n"/>
       <c r="AV60" s="19" t="n"/>
     </row>
-    <row r="61" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="61" s="8">
       <c r="C61" s="9" t="inlineStr">
         <is>
           <t>24 Jun 2015</t>
@@ -3626,7 +3626,7 @@
       <c r="AU61" s="18" t="n"/>
       <c r="AV61" s="19" t="n"/>
     </row>
-    <row r="62" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="62" s="8">
       <c r="C62" s="9" t="inlineStr">
         <is>
           <t>11 Jun 2015</t>
@@ -3690,7 +3690,7 @@
       <c r="AU62" s="18" t="n"/>
       <c r="AV62" s="19" t="n"/>
     </row>
-    <row r="63" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="63" s="8">
       <c r="C63" s="9" t="inlineStr">
         <is>
           <t>10 Jun 2015</t>
@@ -3754,7 +3754,7 @@
       <c r="AU63" s="18" t="n"/>
       <c r="AV63" s="19" t="n"/>
     </row>
-    <row r="64" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="64" s="8">
       <c r="C64" s="9" t="inlineStr">
         <is>
           <t>03 Jun 2015</t>
@@ -3826,7 +3826,7 @@
       <c r="AU64" s="18" t="n"/>
       <c r="AV64" s="19" t="n"/>
     </row>
-    <row r="65" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="65" s="8">
       <c r="C65" s="9" t="inlineStr">
         <is>
           <t>03 Jun 2015</t>
@@ -3890,7 +3890,7 @@
       <c r="AU65" s="18" t="n"/>
       <c r="AV65" s="19" t="n"/>
     </row>
-    <row r="66" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="66" s="8">
       <c r="C66" s="9" t="inlineStr">
         <is>
           <t>27 May 2015</t>
@@ -3954,7 +3954,7 @@
       <c r="AU66" s="18" t="n"/>
       <c r="AV66" s="19" t="n"/>
     </row>
-    <row r="67" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="67" s="8">
       <c r="C67" s="9" t="inlineStr">
         <is>
           <t>26 May 2015</t>
@@ -4026,7 +4026,7 @@
       <c r="AU67" s="18" t="n"/>
       <c r="AV67" s="19" t="n"/>
     </row>
-    <row r="68" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="68" s="8">
       <c r="C68" s="9" t="inlineStr">
         <is>
           <t>26 May 2015</t>
@@ -4090,7 +4090,7 @@
       <c r="AU68" s="18" t="n"/>
       <c r="AV68" s="19" t="n"/>
     </row>
-    <row r="69" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="69" s="8">
       <c r="C69" s="9" t="inlineStr">
         <is>
           <t>20 May 2015</t>
@@ -4154,7 +4154,7 @@
       <c r="AU69" s="18" t="n"/>
       <c r="AV69" s="19" t="n"/>
     </row>
-    <row r="70" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="70" s="8">
       <c r="C70" s="9" t="inlineStr">
         <is>
           <t>15 May 2015</t>
@@ -4218,7 +4218,7 @@
       <c r="AU70" s="18" t="n"/>
       <c r="AV70" s="19" t="n"/>
     </row>
-    <row r="71" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="71" s="8">
       <c r="C71" s="9" t="inlineStr">
         <is>
           <t>14 May 2015</t>
@@ -4282,7 +4282,7 @@
       <c r="AU71" s="18" t="n"/>
       <c r="AV71" s="19" t="n"/>
     </row>
-    <row r="72" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="72" s="8">
       <c r="C72" s="9" t="inlineStr">
         <is>
           <t>14 May 2015</t>
@@ -4354,7 +4354,7 @@
       <c r="AU72" s="18" t="n"/>
       <c r="AV72" s="19" t="n"/>
     </row>
-    <row r="73" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="73" s="8">
       <c r="C73" s="9" t="inlineStr">
         <is>
           <t>14 May 2015</t>
@@ -4418,7 +4418,7 @@
       <c r="AU73" s="18" t="n"/>
       <c r="AV73" s="19" t="n"/>
     </row>
-    <row r="74" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="74" s="8">
       <c r="C74" s="9" t="inlineStr">
         <is>
           <t>13 May 2015</t>
@@ -4482,7 +4482,7 @@
       <c r="AU74" s="18" t="n"/>
       <c r="AV74" s="19" t="n"/>
     </row>
-    <row r="75" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="75" s="8">
       <c r="C75" s="9" t="inlineStr">
         <is>
           <t>08 May 2015</t>
@@ -4546,7 +4546,7 @@
       <c r="AU75" s="18" t="n"/>
       <c r="AV75" s="19" t="n"/>
     </row>
-    <row r="76" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="76" s="8">
       <c r="C76" s="9" t="inlineStr">
         <is>
           <t>08 May 2015</t>
@@ -4610,7 +4610,7 @@
       <c r="AU76" s="18" t="n"/>
       <c r="AV76" s="19" t="n"/>
     </row>
-    <row r="77" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="77" s="8">
       <c r="C77" s="9" t="inlineStr">
         <is>
           <t>07 May 2015</t>
@@ -4674,7 +4674,7 @@
       <c r="AU77" s="18" t="n"/>
       <c r="AV77" s="19" t="n"/>
     </row>
-    <row r="78" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="78" s="8">
       <c r="C78" s="9" t="inlineStr">
         <is>
           <t>06 May 2015</t>
@@ -4738,7 +4738,7 @@
       <c r="AU78" s="18" t="n"/>
       <c r="AV78" s="19" t="n"/>
     </row>
-    <row r="79" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="79" s="8">
       <c r="C79" s="9" t="inlineStr">
         <is>
           <t>29 Apr 2015</t>
@@ -4802,7 +4802,7 @@
       <c r="AU79" s="18" t="n"/>
       <c r="AV79" s="19" t="n"/>
     </row>
-    <row r="80" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="80" s="8">
       <c r="C80" s="9" t="inlineStr">
         <is>
           <t>24 Apr 2015</t>
@@ -4874,7 +4874,7 @@
       <c r="AU80" s="18" t="n"/>
       <c r="AV80" s="19" t="n"/>
     </row>
-    <row r="81" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="81" s="8">
       <c r="C81" s="9" t="inlineStr">
         <is>
           <t>24 Apr 2015</t>
@@ -4938,7 +4938,7 @@
       <c r="AU81" s="18" t="n"/>
       <c r="AV81" s="19" t="n"/>
     </row>
-    <row r="82" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="82" s="8">
       <c r="C82" s="9" t="inlineStr">
         <is>
           <t>23 Apr 2015</t>
@@ -4998,7 +4998,7 @@
       <c r="AU82" s="18" t="n"/>
       <c r="AV82" s="19" t="n"/>
     </row>
-    <row r="83" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="83" s="8">
       <c r="C83" s="9" t="inlineStr">
         <is>
           <t>23 Apr 2015</t>
@@ -5070,7 +5070,7 @@
       <c r="AU83" s="18" t="n"/>
       <c r="AV83" s="19" t="n"/>
     </row>
-    <row r="84" ht="33" customHeight="1" s="8">
+    <row customHeight="1" ht="33" r="84" s="8">
       <c r="C84" s="9" t="inlineStr">
         <is>
           <t>23 Apr 2015</t>
@@ -5467,7 +5467,7 @@
     <mergeCell ref="AO84:AR84"/>
     <mergeCell ref="AS84:AV84"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>